--- a/Cargo_test.xlsx
+++ b/Cargo_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarou\Documents\Pycharm Projects\Genetic_Layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997D4E18-8366-45C2-AB66-F123EB7D5644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6C873-BC4E-413D-9F23-97A54D508F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="29025" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,12 +105,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -386,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,46 +417,46 @@
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -463,455 +475,455 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>31.02</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>7.76</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3.96</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.99</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3.27</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.82</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>19.39</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>93.22</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>15.49</v>
+      </c>
+      <c r="F7">
+        <v>22.74</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>9.56</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>0.2</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>15.51</v>
+      </c>
+      <c r="F9">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>93.22</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>38.78</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.4</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="C10">
         <v>4.95</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="D10">
+        <v>4.08</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>0.3</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>4.08</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="C12">
         <v>0.3</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>15.49</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>15.51</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>19.39</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>22.74</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="F13">
         <v>4.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>31.02</v>
-      </c>
-      <c r="C7">
-        <v>3.96</v>
-      </c>
-      <c r="D7">
-        <v>3.27</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7.76</v>
-      </c>
-      <c r="C9">
-        <v>0.99</v>
-      </c>
-      <c r="D9">
-        <v>0.82</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>93.22</v>
-      </c>
-      <c r="G9">
-        <v>9.56</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>93.22</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -937,15 +949,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA67799-9950-42D2-A66E-9EE72C34026D}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +966,7 @@
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -964,8 +977,11 @@
         <f>SUM(B2:B13)</f>
         <v>1087</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -976,85 +992,118 @@
         <f>48*48</f>
         <v>2304</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>90</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
